--- a/public/data/MyLpb.xlsx
+++ b/public/data/MyLpb.xlsx
@@ -1,1074 +1,1104 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
+  <bookViews>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Hoja 1" sheetId="1" r:id="rId4"/>
+    <sheet name="Hoja 1" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1103" uniqueCount="347">
-  <si>
-    <t>Edición</t>
-  </si>
-  <si>
-    <t>Nombre</t>
-  </si>
-  <si>
-    <t>Tipo</t>
-  </si>
-  <si>
-    <t>Rareza</t>
-  </si>
-  <si>
-    <t>Raza</t>
-  </si>
-  <si>
-    <t>Fuerza</t>
-  </si>
-  <si>
-    <t>Coste</t>
-  </si>
-  <si>
-    <t>Imagen</t>
-  </si>
-  <si>
-    <t>Hélenica</t>
-  </si>
-  <si>
-    <t>Astreo</t>
-  </si>
-  <si>
-    <t>Aliado</t>
-  </si>
-  <si>
-    <t>Real</t>
-  </si>
-  <si>
-    <t>Olímpico</t>
-  </si>
-  <si>
-    <t>72-118</t>
-  </si>
-  <si>
-    <t>116-140</t>
-  </si>
-  <si>
-    <t>Hera</t>
-  </si>
-  <si>
-    <t>20-005</t>
-  </si>
-  <si>
-    <t>109-059</t>
-  </si>
-  <si>
-    <t>El Oscuro Hades</t>
-  </si>
-  <si>
-    <t>20-007</t>
-  </si>
-  <si>
-    <t>92-037</t>
-  </si>
-  <si>
-    <t>116-141</t>
-  </si>
-  <si>
-    <t>Jano</t>
-  </si>
-  <si>
-    <t>44-005</t>
-  </si>
-  <si>
-    <t>Gaia</t>
-  </si>
-  <si>
-    <t>72-074</t>
-  </si>
-  <si>
-    <t>El Gran Zeus</t>
-  </si>
-  <si>
-    <t>72-075</t>
-  </si>
-  <si>
-    <t>116-137</t>
-  </si>
-  <si>
-    <t>Eros</t>
-  </si>
-  <si>
-    <t>116-139</t>
-  </si>
-  <si>
-    <t>Helios</t>
-  </si>
-  <si>
-    <t>116-079</t>
-  </si>
-  <si>
-    <t>Júpiter</t>
-  </si>
-  <si>
-    <t>44-004</t>
-  </si>
-  <si>
-    <t>Neptuno</t>
-  </si>
-  <si>
-    <t>44-006</t>
-  </si>
-  <si>
-    <t>109-126</t>
-  </si>
-  <si>
-    <t>Atenea</t>
-  </si>
-  <si>
-    <t>116-078</t>
-  </si>
-  <si>
-    <t>72-077</t>
-  </si>
-  <si>
-    <t>Clio</t>
-  </si>
-  <si>
-    <t>116-122</t>
-  </si>
-  <si>
-    <t>Eolo</t>
-  </si>
-  <si>
-    <t>20-003</t>
-  </si>
-  <si>
-    <t>Thanatos</t>
-  </si>
-  <si>
-    <t>20-010</t>
-  </si>
-  <si>
-    <t>Zagreus</t>
-  </si>
-  <si>
-    <t>116-062</t>
-  </si>
-  <si>
-    <t>Poseidon</t>
-  </si>
-  <si>
-    <t>109-060</t>
-  </si>
-  <si>
-    <t>Triton - Foil</t>
-  </si>
-  <si>
-    <t>Vasallo</t>
-  </si>
-  <si>
-    <t>109-141</t>
-  </si>
-  <si>
-    <t>Pan - Foil</t>
-  </si>
-  <si>
-    <t>116-177</t>
-  </si>
-  <si>
-    <t>Eos</t>
-  </si>
-  <si>
-    <t>Titán</t>
-  </si>
-  <si>
-    <t>116-082</t>
-  </si>
-  <si>
-    <t>Helénica</t>
-  </si>
-  <si>
-    <t>116-084</t>
-  </si>
-  <si>
-    <t>Prometeo</t>
-  </si>
-  <si>
-    <t>20-037</t>
-  </si>
-  <si>
-    <t>Porfirión</t>
-  </si>
-  <si>
-    <t>116-124</t>
-  </si>
-  <si>
-    <t>Los Titanes</t>
-  </si>
-  <si>
-    <t>109-073</t>
-  </si>
-  <si>
-    <t>Medusa</t>
-  </si>
-  <si>
-    <t>72-033</t>
-  </si>
-  <si>
-    <t>109-053</t>
-  </si>
-  <si>
-    <t>Noctumbros</t>
-  </si>
-  <si>
-    <t>20-038</t>
-  </si>
-  <si>
-    <t>Leucrota</t>
-  </si>
-  <si>
-    <t>72-084</t>
-  </si>
-  <si>
-    <t>Cronos</t>
-  </si>
-  <si>
-    <t>72-079</t>
-  </si>
-  <si>
-    <t>Dragón Ceniza</t>
-  </si>
-  <si>
-    <t>44-008</t>
-  </si>
-  <si>
-    <t>Tea</t>
-  </si>
-  <si>
-    <t>109-078</t>
-  </si>
-  <si>
-    <t>Selene</t>
-  </si>
-  <si>
-    <t>109-112</t>
-  </si>
-  <si>
-    <t>Atlante - Foil</t>
-  </si>
-  <si>
-    <t>72-174</t>
-  </si>
-  <si>
-    <t>Aquiles</t>
-  </si>
-  <si>
-    <t>Héroe</t>
-  </si>
-  <si>
-    <t>109-072</t>
-  </si>
-  <si>
-    <t>Reina Hipolita</t>
-  </si>
-  <si>
-    <t>Promo</t>
-  </si>
-  <si>
-    <t>100-1</t>
-  </si>
-  <si>
-    <t>Orfeo</t>
-  </si>
-  <si>
-    <t>72-078</t>
-  </si>
-  <si>
-    <t>Perseo</t>
-  </si>
-  <si>
-    <t>109-052</t>
-  </si>
-  <si>
-    <t>72-032</t>
-  </si>
-  <si>
-    <t>116-044</t>
-  </si>
-  <si>
-    <t>Leonidas</t>
-  </si>
-  <si>
-    <t>116-045</t>
-  </si>
-  <si>
-    <t>Teseo</t>
-  </si>
-  <si>
-    <t>72-129</t>
-  </si>
-  <si>
-    <t>Polux</t>
-  </si>
-  <si>
-    <t>109-071</t>
-  </si>
-  <si>
-    <t>Alejandro Magno</t>
-  </si>
-  <si>
-    <t>72-130</t>
-  </si>
-  <si>
-    <t>Cesar Augusto</t>
-  </si>
-  <si>
-    <t>72-138</t>
-  </si>
-  <si>
-    <t>116-142</t>
-  </si>
-  <si>
-    <t>Espartaco</t>
-  </si>
-  <si>
-    <t>72-083</t>
-  </si>
-  <si>
-    <t>109-046</t>
-  </si>
-  <si>
-    <t>Julio Cesar</t>
-  </si>
-  <si>
-    <t>72-086</t>
-  </si>
-  <si>
-    <t>116-080</t>
-  </si>
-  <si>
-    <t>Ganimides</t>
-  </si>
-  <si>
-    <t>116-063</t>
-  </si>
-  <si>
-    <t>Teseo de Atenas</t>
-  </si>
-  <si>
-    <t>100-2</t>
-  </si>
-  <si>
-    <t>Marco Antonio</t>
-  </si>
-  <si>
-    <t>116-042</t>
-  </si>
-  <si>
-    <t>Cirene</t>
-  </si>
-  <si>
-    <t>116-123</t>
-  </si>
-  <si>
-    <t>Paris</t>
-  </si>
-  <si>
-    <t>100-3</t>
-  </si>
-  <si>
-    <t>Piritoo</t>
-  </si>
-  <si>
-    <t>100-4</t>
-  </si>
-  <si>
-    <t>Ariadna</t>
-  </si>
-  <si>
-    <t>100-5</t>
-  </si>
-  <si>
-    <t>Egeo</t>
-  </si>
-  <si>
-    <t>100-6</t>
-  </si>
-  <si>
-    <t>Atlantida</t>
-  </si>
-  <si>
-    <t>Tótem</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>72-082</t>
-  </si>
-  <si>
-    <t>116-087</t>
-  </si>
-  <si>
-    <t>Delfos</t>
-  </si>
-  <si>
-    <t>72-166</t>
-  </si>
-  <si>
-    <t>Atenas</t>
-  </si>
-  <si>
-    <t>72-134</t>
-  </si>
-  <si>
-    <t>Coliseo</t>
-  </si>
-  <si>
-    <t>72-085</t>
-  </si>
-  <si>
-    <t>116-088</t>
-  </si>
-  <si>
-    <t>Tártaro</t>
-  </si>
-  <si>
-    <t>72-133</t>
-  </si>
-  <si>
-    <t>Micenas</t>
-  </si>
-  <si>
-    <t>82-008</t>
-  </si>
-  <si>
-    <t>Totem de Fenix - Foil</t>
-  </si>
-  <si>
-    <t>Cortesano</t>
-  </si>
-  <si>
-    <t>72-224</t>
-  </si>
-  <si>
-    <t>Maraton</t>
-  </si>
-  <si>
-    <t>100-7</t>
-  </si>
-  <si>
-    <t>Casa de Hestia</t>
-  </si>
-  <si>
-    <t>109-137</t>
-  </si>
-  <si>
-    <t>Ofrenda a los Dioses</t>
-  </si>
-  <si>
-    <t>Oro</t>
-  </si>
-  <si>
-    <t>72-135</t>
-  </si>
-  <si>
-    <t>116-147</t>
-  </si>
-  <si>
-    <t>Ave de Hera</t>
-  </si>
-  <si>
-    <t>72-061</t>
-  </si>
-  <si>
-    <t>116-089</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1162" uniqueCount="347">
+  <si>
+    <t xml:space="preserve">Edicion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nombre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tipo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rareza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fuerza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coste</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Imagen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">he</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Astreo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aliado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Real</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Olímpico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72-118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">116-140</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20-005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">109-059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El Oscuro Hades</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20-007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">92-037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">116-141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44-005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gaia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72-074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El Gran Zeus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72-075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">116-137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">116-139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Helios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">116-079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Júpiter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44-004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neptuno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44-006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">109-126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atenea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">116-078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72-077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">116-122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eolo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20-003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thanatos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20-010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zagreus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">116-062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poseidon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">109-060</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Triton - Foil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vasallo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">109-141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pan - Foil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">116-177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Titán</t>
+  </si>
+  <si>
+    <t xml:space="preserve">116-082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Helénica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">116-084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prometeo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20-037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Porfirión</t>
+  </si>
+  <si>
+    <t xml:space="preserve">116-124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los Titanes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">109-073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medusa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72-033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">109-053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Noctumbros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20-038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leucrota</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72-084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cronos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72-079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dragón Ceniza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44-008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">109-078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Selene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">109-112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atlante - Foil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72-174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aquiles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Héroe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">109-072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reina Hipolita</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Promo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orfeo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72-078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perseo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">109-052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72-032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">116-044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leonidas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">116-045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teseo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72-129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Polux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">109-071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alejandro Magno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72-130</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cesar Augusto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72-138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">116-142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Espartaco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72-083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">109-046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Julio Cesar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72-086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">116-080</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ganimides</t>
+  </si>
+  <si>
+    <t xml:space="preserve">116-063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teseo de Atenas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marco Antonio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">116-042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cirene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">116-123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paris</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Piritoo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ariadna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Egeo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atlantida</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tótem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72-082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">116-087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delfos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72-166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atenas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72-134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coliseo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72-085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">116-088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tártaro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72-133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Micenas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82-008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Totem de Fenix - Foil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cortesano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72-224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maraton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100-7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Casa de Hestia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">109-137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ofrenda a los Dioses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72-135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">116-147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ave de Hera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72-061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">116-089</t>
   </si>
   <si>
     <t xml:space="preserve">Antorcha Olimpica </t>
   </si>
   <si>
-    <t>72-137</t>
-  </si>
-  <si>
-    <t>116-149</t>
-  </si>
-  <si>
-    <t>Aceite de Oliva</t>
-  </si>
-  <si>
-    <t>109-147</t>
-  </si>
-  <si>
-    <t>81-001</t>
-  </si>
-  <si>
-    <t>La Ilíada</t>
-  </si>
-  <si>
-    <t>72-136</t>
-  </si>
-  <si>
-    <t>Hoz de Cronos</t>
-  </si>
-  <si>
-    <t>Arma</t>
-  </si>
-  <si>
-    <t>100-8</t>
-  </si>
-  <si>
-    <t>Gladius</t>
-  </si>
-  <si>
-    <t>109-097</t>
-  </si>
-  <si>
-    <t>Casco de Hades</t>
-  </si>
-  <si>
-    <t>109-092</t>
-  </si>
-  <si>
-    <t>Maquinaria de Guerra</t>
-  </si>
-  <si>
-    <t>44-031</t>
-  </si>
-  <si>
-    <t>Escudo de Perseo</t>
-  </si>
-  <si>
-    <t>72-059</t>
-  </si>
-  <si>
-    <t>Yelmo de Legionario</t>
-  </si>
-  <si>
-    <t>100-9</t>
-  </si>
-  <si>
-    <t>Armas Legadas</t>
-  </si>
-  <si>
-    <t>100-10</t>
-  </si>
-  <si>
-    <t>Formación de Tortuga</t>
-  </si>
-  <si>
-    <t>Talismán</t>
-  </si>
-  <si>
-    <t>44-050</t>
-  </si>
-  <si>
-    <t>Maldicion de Hera</t>
-  </si>
-  <si>
-    <t>109-114</t>
-  </si>
-  <si>
-    <t>Ira Ignea</t>
-  </si>
-  <si>
-    <t>72-081</t>
-  </si>
-  <si>
-    <t>116-145</t>
-  </si>
-  <si>
-    <t>81-012</t>
-  </si>
-  <si>
-    <t>Forma de Toro</t>
-  </si>
-  <si>
-    <t>82-004</t>
-  </si>
-  <si>
-    <t>Camino Hacia Atenas</t>
-  </si>
-  <si>
-    <t>100-11</t>
-  </si>
-  <si>
-    <t>Mar de Almas</t>
-  </si>
-  <si>
-    <t>100-12</t>
-  </si>
-  <si>
-    <t>Duelo Injusto</t>
-  </si>
-  <si>
-    <t>100-13</t>
-  </si>
-  <si>
-    <t>Caballo de Troya</t>
-  </si>
-  <si>
-    <t>109-082</t>
-  </si>
-  <si>
-    <t>Ambrosia</t>
-  </si>
-  <si>
-    <t>44-047</t>
-  </si>
-  <si>
-    <t>Olimpiadas</t>
-  </si>
-  <si>
-    <t>109-085</t>
-  </si>
-  <si>
-    <t>Invocar Luz</t>
-  </si>
-  <si>
-    <t>109-083</t>
-  </si>
-  <si>
-    <t>Alas de Icaro</t>
-  </si>
-  <si>
-    <t>72-132</t>
-  </si>
-  <si>
-    <t>116-085</t>
-  </si>
-  <si>
-    <t>Hogar de Demonios</t>
-  </si>
-  <si>
-    <t>20-056</t>
-  </si>
-  <si>
-    <t>Rómulo y Remo</t>
-  </si>
-  <si>
-    <t>44-046</t>
-  </si>
-  <si>
-    <t>Ataque de Aníbal</t>
-  </si>
-  <si>
-    <t>44-048</t>
-  </si>
-  <si>
-    <t>El Vesubio</t>
-  </si>
-  <si>
-    <t>44-049</t>
-  </si>
-  <si>
-    <t>La Ira de Tifon</t>
-  </si>
-  <si>
-    <t>116-146</t>
-  </si>
-  <si>
-    <t>Red de Aracne</t>
-  </si>
-  <si>
-    <t>109-136</t>
-  </si>
-  <si>
-    <t>Raza de Pigmeos</t>
-  </si>
-  <si>
-    <t>72-173</t>
-  </si>
-  <si>
-    <t>Velas Negras</t>
-  </si>
-  <si>
-    <t>100-14</t>
-  </si>
-  <si>
-    <t>Dominios de Ra</t>
-  </si>
-  <si>
-    <t>Anhur</t>
-  </si>
-  <si>
-    <t>Eterno</t>
-  </si>
-  <si>
-    <t>72-119</t>
-  </si>
-  <si>
-    <t>100-15</t>
-  </si>
-  <si>
-    <t>Isis</t>
-  </si>
-  <si>
-    <t>72-151</t>
-  </si>
-  <si>
-    <t>Apophis</t>
-  </si>
-  <si>
-    <t>21-005</t>
-  </si>
-  <si>
-    <t>Ptah</t>
-  </si>
-  <si>
-    <t>72-101</t>
-  </si>
-  <si>
-    <t>Ptah - No Foil</t>
-  </si>
-  <si>
-    <t>116-165</t>
-  </si>
-  <si>
-    <t>Bastet - No Foil</t>
-  </si>
-  <si>
-    <t>21-009</t>
-  </si>
-  <si>
-    <t>Horus</t>
-  </si>
-  <si>
-    <t>72-150</t>
-  </si>
-  <si>
-    <t>Horus - No Foil</t>
-  </si>
-  <si>
-    <t>Geb</t>
-  </si>
-  <si>
-    <t>21-011</t>
-  </si>
-  <si>
-    <t>Maahes</t>
-  </si>
-  <si>
-    <t>72-114</t>
-  </si>
-  <si>
-    <t>Anubis</t>
-  </si>
-  <si>
-    <t>72-102</t>
-  </si>
-  <si>
-    <t>Anubis - No Foil</t>
-  </si>
-  <si>
-    <t>Nut</t>
-  </si>
-  <si>
-    <t>72-152</t>
-  </si>
-  <si>
-    <t>Amon</t>
-  </si>
-  <si>
-    <t>72-149</t>
-  </si>
-  <si>
-    <t>Ra</t>
-  </si>
-  <si>
-    <t>21-007</t>
-  </si>
-  <si>
-    <t>Nehebaku</t>
-  </si>
-  <si>
-    <t>116-126</t>
-  </si>
-  <si>
-    <t>Mafedet</t>
-  </si>
-  <si>
-    <t>116-166</t>
-  </si>
-  <si>
-    <t>Imentet - Foil</t>
-  </si>
-  <si>
-    <t>72-170</t>
-  </si>
-  <si>
-    <t>Ramses ll</t>
-  </si>
-  <si>
-    <t>Faraón</t>
-  </si>
-  <si>
-    <t>21-017</t>
-  </si>
-  <si>
-    <t>Alejandro II</t>
-  </si>
-  <si>
-    <t>72-110</t>
-  </si>
-  <si>
-    <t>Dario El Grande</t>
-  </si>
-  <si>
-    <t>72-111</t>
-  </si>
-  <si>
-    <t>116-109</t>
-  </si>
-  <si>
-    <t>100-16</t>
-  </si>
-  <si>
-    <t>Tutankamón</t>
-  </si>
-  <si>
-    <t>72-154</t>
-  </si>
-  <si>
-    <t>Neferite I</t>
-  </si>
-  <si>
-    <t>72-027</t>
-  </si>
-  <si>
-    <t>116-053</t>
-  </si>
-  <si>
-    <t>100-17</t>
-  </si>
-  <si>
-    <t>Amosis I</t>
-  </si>
-  <si>
-    <t>100-18</t>
-  </si>
-  <si>
-    <t>Micerinos</t>
-  </si>
-  <si>
-    <t>72-155</t>
-  </si>
-  <si>
-    <t>Pepi I</t>
-  </si>
-  <si>
-    <t>116-168</t>
-  </si>
-  <si>
-    <t>Amenofis III</t>
-  </si>
-  <si>
-    <t>72-062</t>
-  </si>
-  <si>
-    <t>Necho I</t>
-  </si>
-  <si>
-    <t>100-19</t>
-  </si>
-  <si>
-    <t>Sethnajt</t>
-  </si>
-  <si>
-    <t>116-127</t>
-  </si>
-  <si>
-    <t>Tamis</t>
-  </si>
-  <si>
-    <t>100-20</t>
-  </si>
-  <si>
-    <t>Ahmosis El de Fuego</t>
-  </si>
-  <si>
-    <t>100-21</t>
-  </si>
-  <si>
-    <t>Ptolomeo III</t>
-  </si>
-  <si>
-    <t>100-22</t>
-  </si>
-  <si>
-    <t>Guerreros Egipcios</t>
-  </si>
-  <si>
-    <t>100-23</t>
-  </si>
-  <si>
-    <t>Sehetepibre</t>
-  </si>
-  <si>
-    <t>100-24</t>
-  </si>
-  <si>
-    <t>Kawit</t>
-  </si>
-  <si>
-    <t>Sacerdote</t>
-  </si>
-  <si>
-    <t>21-039</t>
-  </si>
-  <si>
-    <t>Demoledor de Amon</t>
-  </si>
-  <si>
-    <t>47-247</t>
-  </si>
-  <si>
-    <t>Iuwlot</t>
-  </si>
-  <si>
-    <t>47-248</t>
-  </si>
-  <si>
-    <t>Oseye</t>
-  </si>
-  <si>
-    <t>72-052</t>
-  </si>
-  <si>
-    <t>Tuthu</t>
-  </si>
-  <si>
-    <t>72-156</t>
-  </si>
-  <si>
-    <t>116-167</t>
-  </si>
-  <si>
-    <t>Takelot</t>
-  </si>
-  <si>
-    <t>72-103</t>
-  </si>
-  <si>
-    <t>116-106</t>
-  </si>
-  <si>
-    <t>Suma</t>
-  </si>
-  <si>
-    <t>21-040</t>
-  </si>
-  <si>
-    <t>Haquika</t>
-  </si>
-  <si>
-    <t>72-028</t>
-  </si>
-  <si>
-    <t>Erastóstenes</t>
-  </si>
-  <si>
-    <t>116-108</t>
-  </si>
-  <si>
-    <t>100-25</t>
-  </si>
-  <si>
-    <t>Bahiti</t>
-  </si>
-  <si>
-    <t>21-029</t>
-  </si>
-  <si>
-    <t>100-26</t>
-  </si>
-  <si>
-    <t>Qer-Her</t>
-  </si>
-  <si>
-    <t>72-104</t>
-  </si>
-  <si>
-    <t>116-107</t>
-  </si>
-  <si>
-    <t>Kiya</t>
-  </si>
-  <si>
-    <t>72-157</t>
-  </si>
-  <si>
-    <t>Imoteph</t>
-  </si>
-  <si>
-    <t>21-028</t>
-  </si>
-  <si>
-    <t>Bengay</t>
-  </si>
-  <si>
-    <t>47-246</t>
-  </si>
-  <si>
-    <t>Yunet</t>
-  </si>
-  <si>
-    <t>21-038</t>
-  </si>
-  <si>
-    <t>Zazamoukh</t>
-  </si>
-  <si>
-    <t>72-053</t>
-  </si>
-  <si>
-    <t>Nehmetawy - Foil</t>
-  </si>
-  <si>
-    <t>116-185</t>
-  </si>
-  <si>
-    <t>72-026</t>
-  </si>
-  <si>
-    <t>Karnak</t>
-  </si>
-  <si>
-    <t>21-072</t>
-  </si>
-  <si>
-    <t>Duat</t>
-  </si>
-  <si>
-    <t>118-001</t>
-  </si>
-  <si>
-    <t>116-118</t>
-  </si>
-  <si>
-    <t>72-060</t>
+    <t xml:space="preserve">72-137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">116-149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aceite de Oliva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">109-147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La Ilíada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72-136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hoz de Cronos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100-8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gladius</t>
+  </si>
+  <si>
+    <t xml:space="preserve">109-097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Casco de Hades</t>
+  </si>
+  <si>
+    <t xml:space="preserve">109-092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maquinaria de Guerra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44-031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Escudo de Perseo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72-059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yelmo de Legionario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100-9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Armas Legadas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Formación de Tortuga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talismán</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44-050</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maldicion de Hera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">109-114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ira Ignea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72-081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">116-145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81-012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forma de Toro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82-004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Camino Hacia Atenas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mar de Almas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duelo Injusto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caballo de Troya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">109-082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ambrosia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44-047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Olimpiadas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">109-085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Invocar Luz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">109-083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alas de Icaro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72-132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">116-085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hogar de Demonios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20-056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rómulo y Remo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44-046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ataque de Aníbal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44-048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El Vesubio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44-049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La Ira de Tifon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">116-146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Red de Aracne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">109-136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raza de Pigmeos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72-173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Velas Negras</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anhur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eterno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72-119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Isis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72-151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apophis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21-005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ptah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72-101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ptah - No Foil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">116-165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bastet - No Foil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21-009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Horus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72-150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Horus - No Foil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21-011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maahes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72-114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anubis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72-102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anubis - No Foil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72-152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72-149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21-007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nehebaku</t>
+  </si>
+  <si>
+    <t xml:space="preserve">116-126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mafedet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">116-166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Imentet - Foil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72-170</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ramses ll</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Faraón</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21-017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alejandro II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72-110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dario El Grande</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72-111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">116-109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tutankamón</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72-154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neferite I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72-027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">116-053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amosis I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100-18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Micerinos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72-155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pepi I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">116-168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amenofis III</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72-062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Necho I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sethnajt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">116-127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tamis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ahmosis El de Fuego</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100-21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ptolomeo III</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100-22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guerreros Egipcios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sehetepibre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kawit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sacerdote</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21-039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demoledor de Amon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47-247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iuwlot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47-248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oseye</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72-052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuthu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72-156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">116-167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Takelot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72-103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">116-106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21-040</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Haquika</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72-028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erastóstenes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">116-108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100-25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bahiti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21-029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100-26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qer-Her</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72-104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">116-107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72-157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Imoteph</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21-028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bengay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47-246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yunet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21-038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zazamoukh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72-053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nehmetawy - Foil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">116-185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72-026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Karnak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21-072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">118-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">116-118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72-060</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="General"/>
+  </numFmts>
+  <fonts count="5">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1076,32 +1106,62 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1112,94 +1172,90 @@
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
+        <a:srgbClr val="ffffff"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="000000"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="FFFFFF"/>
+        <a:srgbClr val="ffffff"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4285F4"/>
+        <a:srgbClr val="4285f4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="EA4335"/>
+        <a:srgbClr val="ea4335"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="FBBC04"/>
+        <a:srgbClr val="fbbc04"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="34A853"/>
+        <a:srgbClr val="34a853"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="FF6D01"/>
+        <a:srgbClr val="ff6d01"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="46BDC6"/>
+        <a:srgbClr val="46bdc6"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="1155cc"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="1155cc"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Sheets">
       <a:majorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:cs typeface="Arial" pitchFamily="0" charset="1"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:cs typeface="Arial" pitchFamily="0" charset="1"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme>
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
                 <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
                 <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
                 <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
                 <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
                 <a:lumMod val="102000"/>
                 <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
                 <a:lumMod val="100000"/>
                 <a:shade val="100000"/>
               </a:schemeClr>
@@ -1207,33 +1263,24 @@
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
                 <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
         <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
@@ -1246,13 +1293,7 @@
           <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
@@ -1262,15 +1303,13 @@
         <a:solidFill>
           <a:schemeClr val="phClr">
             <a:tint val="95000"/>
-            <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="93000"/>
-                <a:satMod val="150000"/>
                 <a:shade val="98000"/>
                 <a:lumMod val="102000"/>
               </a:schemeClr>
@@ -1278,7 +1317,6 @@
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
                 <a:tint val="98000"/>
-                <a:satMod val="130000"/>
                 <a:shade val="90000"/>
                 <a:lumMod val="103000"/>
               </a:schemeClr>
@@ -1286,11 +1324,11 @@
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:shade val="63000"/>
-                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -1299,32 +1337,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="B1:J183"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="3.0"/>
-    <col customWidth="1" min="2" max="2" width="25.38"/>
-    <col customWidth="1" min="3" max="3" width="17.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.25"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1">
-        <f>SUM(D2:D300)</f>
+      <c r="D1" s="1" t="n">
+        <f aca="false">SUM(D2:D300)</f>
         <v>377</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -1346,15 +1386,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="1">
-        <v>5.0</v>
+      <c r="D2" s="1" t="n">
+        <v>5</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>10</v>
@@ -1365,25 +1405,25 @@
       <c r="G2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="I2" s="1">
-        <v>2.0</v>
+      <c r="H2" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I2" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="1">
-        <v>3.0</v>
+      <c r="D3" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>10</v>
@@ -1394,25 +1434,25 @@
       <c r="G3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="I3" s="1">
-        <v>2.0</v>
+      <c r="H3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I3" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="1">
-        <v>1.0</v>
+      <c r="D4" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>10</v>
@@ -1423,25 +1463,25 @@
       <c r="G4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="I4" s="1">
-        <v>5.0</v>
+      <c r="H4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I4" s="1" t="n">
+        <v>5</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="1">
-        <v>1.0</v>
+      <c r="D5" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>10</v>
@@ -1452,25 +1492,25 @@
       <c r="G5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="I5" s="1">
-        <v>4.0</v>
+      <c r="H5" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I5" s="1" t="n">
+        <v>4</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="1">
-        <v>1.0</v>
+      <c r="D6" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>10</v>
@@ -1481,25 +1521,25 @@
       <c r="G6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="I6" s="1">
-        <v>5.0</v>
+      <c r="H6" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I6" s="1" t="n">
+        <v>5</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="1">
-        <v>1.0</v>
+      <c r="D7" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>10</v>
@@ -1510,25 +1550,25 @@
       <c r="G7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="I7" s="1">
-        <v>5.0</v>
+      <c r="H7" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I7" s="1" t="n">
+        <v>5</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="1">
-        <v>1.0</v>
+      <c r="D8" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>10</v>
@@ -1539,25 +1579,25 @@
       <c r="G8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="I8" s="1">
-        <v>5.0</v>
+      <c r="H8" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I8" s="1" t="n">
+        <v>5</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="1">
-        <v>2.0</v>
+      <c r="D9" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>10</v>
@@ -1568,25 +1608,25 @@
       <c r="G9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="I9" s="1">
-        <v>4.0</v>
+      <c r="H9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" s="1" t="n">
+        <v>4</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="1">
-        <v>2.0</v>
+      <c r="D10" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>10</v>
@@ -1597,25 +1637,25 @@
       <c r="G10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="I10" s="1">
-        <v>4.0</v>
+      <c r="H10" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I10" s="1" t="n">
+        <v>4</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="1">
-        <v>4.0</v>
+      <c r="D11" s="1" t="n">
+        <v>4</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>10</v>
@@ -1626,25 +1666,25 @@
       <c r="G11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H11" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I11" s="1">
-        <v>5.0</v>
+      <c r="H11" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="I11" s="1" t="n">
+        <v>5</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="1">
-        <v>3.0</v>
+      <c r="D12" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>10</v>
@@ -1655,25 +1695,25 @@
       <c r="G12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I12" s="1">
-        <v>5.0</v>
+      <c r="H12" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="I12" s="1" t="n">
+        <v>5</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="1">
-        <v>1.0</v>
+      <c r="D13" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>10</v>
@@ -1684,25 +1724,25 @@
       <c r="G13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H13" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="I13" s="1">
-        <v>2.0</v>
+      <c r="H13" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I13" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="1">
-        <v>2.0</v>
+      <c r="D14" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>10</v>
@@ -1713,25 +1753,25 @@
       <c r="G14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="I14" s="1">
-        <v>5.0</v>
+      <c r="H14" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I14" s="1" t="n">
+        <v>5</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="1">
-        <v>3.0</v>
+      <c r="D15" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>10</v>
@@ -1742,25 +1782,25 @@
       <c r="G15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H15" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I15" s="1">
-        <v>5.0</v>
+      <c r="H15" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="I15" s="1" t="n">
+        <v>5</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="1">
-        <v>1.0</v>
+      <c r="D16" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>10</v>
@@ -1771,25 +1811,25 @@
       <c r="G16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H16" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="I16" s="1">
-        <v>5.0</v>
+      <c r="H16" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I16" s="1" t="n">
+        <v>5</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="1">
-        <v>1.0</v>
+      <c r="D17" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>10</v>
@@ -1800,25 +1840,25 @@
       <c r="G17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H17" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="I17" s="1">
-        <v>5.0</v>
+      <c r="H17" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I17" s="1" t="n">
+        <v>5</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="1">
-        <v>1.0</v>
+      <c r="D18" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>10</v>
@@ -1829,25 +1869,25 @@
       <c r="G18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H18" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="I18" s="1">
-        <v>3.0</v>
+      <c r="H18" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I18" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="1">
-        <v>2.0</v>
+      <c r="D19" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>10</v>
@@ -1858,25 +1898,25 @@
       <c r="G19" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H19" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="I19" s="1">
-        <v>3.0</v>
+      <c r="H19" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I19" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="1">
-        <v>3.0</v>
+      <c r="D20" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>10</v>
@@ -1887,25 +1927,25 @@
       <c r="G20" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H20" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="I20" s="1">
-        <v>2.0</v>
+      <c r="H20" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I20" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D21" s="1">
-        <v>1.0</v>
+      <c r="D21" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>10</v>
@@ -1916,25 +1956,25 @@
       <c r="G21" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H21" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="I21" s="1">
-        <v>6.0</v>
+      <c r="H21" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" s="1" t="n">
+        <v>6</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D22" s="1">
-        <v>4.0</v>
+      <c r="D22" s="1" t="n">
+        <v>4</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>10</v>
@@ -1945,25 +1985,25 @@
       <c r="G22" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H22" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="I22" s="1">
-        <v>5.0</v>
+      <c r="H22" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I22" s="1" t="n">
+        <v>5</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D23" s="1">
-        <v>1.0</v>
+      <c r="D23" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>10</v>
@@ -1974,25 +2014,25 @@
       <c r="G23" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H23" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="I23" s="1">
-        <v>3.0</v>
+      <c r="H23" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I23" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D24" s="1">
-        <v>1.0</v>
+      <c r="D24" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>10</v>
@@ -2003,25 +2043,25 @@
       <c r="G24" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H24" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="I24" s="1">
-        <v>4.0</v>
+      <c r="H24" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I24" s="1" t="n">
+        <v>4</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D25" s="1">
-        <v>1.0</v>
+      <c r="D25" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>10</v>
@@ -2032,25 +2072,25 @@
       <c r="G25" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H25" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="I25" s="1">
-        <v>3.0</v>
+      <c r="H25" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I25" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D26" s="1">
-        <v>6.0</v>
+      <c r="D26" s="1" t="n">
+        <v>6</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>10</v>
@@ -2061,25 +2101,25 @@
       <c r="G26" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H26" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="I26" s="1">
-        <v>1.0</v>
+      <c r="H26" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I26" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="1">
-        <v>2.0</v>
+      <c r="D27" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>10</v>
@@ -2090,25 +2130,25 @@
       <c r="G27" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H27" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="I27" s="1">
-        <v>3.0</v>
+      <c r="H27" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I27" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D28" s="1">
-        <v>4.0</v>
+      <c r="D28" s="1" t="n">
+        <v>4</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>10</v>
@@ -2119,25 +2159,25 @@
       <c r="G28" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H28" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="I28" s="1">
-        <v>1.0</v>
+      <c r="H28" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I28" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D29" s="1">
-        <v>4.0</v>
+      <c r="D29" s="1" t="n">
+        <v>4</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>10</v>
@@ -2148,25 +2188,25 @@
       <c r="G29" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H29" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="I29" s="1">
-        <v>4.0</v>
+      <c r="H29" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="I29" s="1" t="n">
+        <v>4</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D30" s="1">
-        <v>1.0</v>
+      <c r="D30" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>10</v>
@@ -2177,25 +2217,25 @@
       <c r="G30" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H30" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="I30" s="1">
-        <v>3.0</v>
+      <c r="H30" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I30" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D31" s="1">
-        <v>1.0</v>
+      <c r="D31" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>10</v>
@@ -2206,25 +2246,25 @@
       <c r="G31" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H31" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I31" s="1">
-        <v>5.0</v>
+      <c r="H31" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="I31" s="1" t="n">
+        <v>5</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D32" s="1">
-        <v>1.0</v>
+      <c r="D32" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>10</v>
@@ -2235,25 +2275,25 @@
       <c r="G32" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H32" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="I32" s="1">
-        <v>3.0</v>
+      <c r="H32" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I32" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D33" s="1">
-        <v>1.0</v>
+      <c r="D33" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>10</v>
@@ -2264,25 +2304,25 @@
       <c r="G33" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H33" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="I33" s="1">
-        <v>3.0</v>
+      <c r="H33" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I33" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="J33" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D34" s="1">
-        <v>3.0</v>
+      <c r="D34" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>10</v>
@@ -2293,25 +2333,25 @@
       <c r="G34" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H34" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="I34" s="1">
-        <v>1.0</v>
+      <c r="H34" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I34" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="J34" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D35" s="1">
-        <v>5.0</v>
+      <c r="D35" s="1" t="n">
+        <v>5</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>10</v>
@@ -2322,25 +2362,25 @@
       <c r="G35" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H35" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="I35" s="1">
-        <v>5.0</v>
+      <c r="H35" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="I35" s="1" t="n">
+        <v>5</v>
       </c>
       <c r="J35" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D36" s="1">
-        <v>2.0</v>
+      <c r="D36" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>10</v>
@@ -2351,25 +2391,25 @@
       <c r="G36" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H36" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="I36" s="1">
-        <v>5.0</v>
+      <c r="H36" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="I36" s="1" t="n">
+        <v>5</v>
       </c>
       <c r="J36" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D37" s="1">
-        <v>3.0</v>
+      <c r="D37" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>10</v>
@@ -2380,25 +2420,25 @@
       <c r="G37" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H37" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I37" s="1">
-        <v>5.0</v>
+      <c r="H37" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="I37" s="1" t="n">
+        <v>5</v>
       </c>
       <c r="J37" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D38" s="1">
-        <v>2.0</v>
+      <c r="D38" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>10</v>
@@ -2409,25 +2449,25 @@
       <c r="G38" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H38" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="I38" s="1">
-        <v>3.0</v>
+      <c r="H38" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="J38" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D39" s="1">
-        <v>1.0</v>
+      <c r="D39" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>10</v>
@@ -2438,25 +2478,25 @@
       <c r="G39" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H39" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="I39" s="1">
-        <v>3.0</v>
+      <c r="H39" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I39" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="J39" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D40" s="1">
-        <v>1.0</v>
+      <c r="D40" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>10</v>
@@ -2467,25 +2507,25 @@
       <c r="G40" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H40" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="I40" s="1">
-        <v>3.0</v>
+      <c r="H40" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I40" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="J40" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D41" s="1">
-        <v>1.0</v>
+      <c r="D41" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>10</v>
@@ -2496,25 +2536,25 @@
       <c r="G41" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H41" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="I41" s="1">
-        <v>2.0</v>
+      <c r="H41" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I41" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="J41" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D42" s="1">
-        <v>2.0</v>
+      <c r="D42" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>10</v>
@@ -2525,25 +2565,25 @@
       <c r="G42" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="H42" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="I42" s="1">
-        <v>4.0</v>
+      <c r="H42" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I42" s="1" t="n">
+        <v>4</v>
       </c>
       <c r="J42" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D43" s="1">
-        <v>1.0</v>
+      <c r="D43" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>10</v>
@@ -2554,25 +2594,25 @@
       <c r="G43" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="H43" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="I43" s="1">
-        <v>2.0</v>
+      <c r="H43" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I43" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="J43" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D44" s="1">
-        <v>1.0</v>
+      <c r="D44" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>10</v>
@@ -2583,25 +2623,25 @@
       <c r="G44" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="H44" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="I44" s="1">
-        <v>4.0</v>
+      <c r="H44" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I44" s="1" t="n">
+        <v>4</v>
       </c>
       <c r="J44" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D45" s="1">
-        <v>2.0</v>
+      <c r="D45" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>10</v>
@@ -2612,25 +2652,25 @@
       <c r="G45" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="H45" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="I45" s="1">
-        <v>2.0</v>
+      <c r="H45" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I45" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="J45" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D46" s="1">
-        <v>1.0</v>
+      <c r="D46" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>10</v>
@@ -2641,25 +2681,25 @@
       <c r="G46" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="H46" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="I46" s="1">
-        <v>2.0</v>
+      <c r="H46" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I46" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="J46" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D47" s="1">
-        <v>1.0</v>
+      <c r="D47" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>10</v>
@@ -2670,25 +2710,25 @@
       <c r="G47" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="H47" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="I47" s="1">
-        <v>2.0</v>
+      <c r="H47" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I47" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="J47" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D48" s="1">
-        <v>3.0</v>
+      <c r="D48" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>10</v>
@@ -2699,25 +2739,25 @@
       <c r="G48" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="H48" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="I48" s="1">
-        <v>2.0</v>
+      <c r="H48" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I48" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="J48" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D49" s="1">
-        <v>2.0</v>
+      <c r="D49" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>10</v>
@@ -2728,25 +2768,25 @@
       <c r="G49" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="H49" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="I49" s="1">
-        <v>4.0</v>
+      <c r="H49" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I49" s="1" t="n">
+        <v>4</v>
       </c>
       <c r="J49" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D50" s="1">
-        <v>1.0</v>
+      <c r="D50" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>10</v>
@@ -2757,25 +2797,25 @@
       <c r="G50" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="H50" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="I50" s="1">
-        <v>2.0</v>
+      <c r="H50" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I50" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="J50" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D51" s="1">
-        <v>5.0</v>
+      <c r="D51" s="1" t="n">
+        <v>5</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>10</v>
@@ -2786,25 +2826,25 @@
       <c r="G51" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="H51" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="I51" s="1">
-        <v>4.0</v>
+      <c r="H51" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I51" s="1" t="n">
+        <v>4</v>
       </c>
       <c r="J51" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D52" s="1">
-        <v>6.0</v>
+      <c r="D52" s="1" t="n">
+        <v>6</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>10</v>
@@ -2815,25 +2855,25 @@
       <c r="G52" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="H52" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="I52" s="1">
-        <v>4.0</v>
+      <c r="H52" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I52" s="1" t="n">
+        <v>4</v>
       </c>
       <c r="J52" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D53" s="1">
-        <v>3.0</v>
+      <c r="D53" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>10</v>
@@ -2844,25 +2884,25 @@
       <c r="G53" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="H53" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="I53" s="1">
-        <v>4.0</v>
+      <c r="H53" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I53" s="1" t="n">
+        <v>4</v>
       </c>
       <c r="J53" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D54" s="1">
-        <v>2.0</v>
+      <c r="D54" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>10</v>
@@ -2873,25 +2913,25 @@
       <c r="G54" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="H54" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="I54" s="1">
-        <v>3.0</v>
+      <c r="H54" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I54" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="J54" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D55" s="1">
-        <v>1.0</v>
+      <c r="D55" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>10</v>
@@ -2902,25 +2942,25 @@
       <c r="G55" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="H55" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="I55" s="1">
-        <v>3.0</v>
+      <c r="H55" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I55" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="J55" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D56" s="1">
-        <v>4.0</v>
+      <c r="D56" s="1" t="n">
+        <v>4</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>10</v>
@@ -2931,25 +2971,25 @@
       <c r="G56" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="H56" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="I56" s="1">
-        <v>4.0</v>
+      <c r="H56" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I56" s="1" t="n">
+        <v>4</v>
       </c>
       <c r="J56" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D57" s="1">
-        <v>2.0</v>
+      <c r="D57" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>10</v>
@@ -2960,25 +3000,25 @@
       <c r="G57" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="H57" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="I57" s="1">
-        <v>4.0</v>
+      <c r="H57" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I57" s="1" t="n">
+        <v>4</v>
       </c>
       <c r="J57" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D58" s="1">
-        <v>4.0</v>
+      <c r="D58" s="1" t="n">
+        <v>4</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>10</v>
@@ -2989,25 +3029,25 @@
       <c r="G58" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="H58" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="I58" s="1">
-        <v>2.0</v>
+      <c r="H58" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I58" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="J58" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D59" s="1">
-        <v>1.0</v>
+      <c r="D59" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>10</v>
@@ -3018,25 +3058,25 @@
       <c r="G59" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="H59" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="I59" s="1">
-        <v>4.0</v>
+      <c r="H59" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="I59" s="1" t="n">
+        <v>4</v>
       </c>
       <c r="J59" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D60" s="1">
-        <v>3.0</v>
+      <c r="D60" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>10</v>
@@ -3047,25 +3087,25 @@
       <c r="G60" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="H60" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="I60" s="1">
-        <v>2.0</v>
+      <c r="H60" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I60" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="J60" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="D61" s="1">
-        <v>2.0</v>
+      <c r="D61" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>10</v>
@@ -3076,25 +3116,25 @@
       <c r="G61" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="H61" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="I61" s="1">
-        <v>3.0</v>
+      <c r="H61" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I61" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="J61" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D62" s="1">
-        <v>2.0</v>
+      <c r="D62" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>10</v>
@@ -3105,25 +3145,25 @@
       <c r="G62" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="H62" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="I62" s="1">
-        <v>2.0</v>
+      <c r="H62" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I62" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="J62" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D63" s="1">
-        <v>1.0</v>
+      <c r="D63" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>10</v>
@@ -3134,25 +3174,25 @@
       <c r="G63" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="H63" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="I63" s="1">
-        <v>3.0</v>
+      <c r="H63" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I63" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="J63" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="D64" s="1">
-        <v>1.0</v>
+      <c r="D64" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>10</v>
@@ -3163,25 +3203,25 @@
       <c r="G64" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="H64" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="I64" s="1">
-        <v>3.0</v>
+      <c r="H64" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I64" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="J64" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B65" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="D65" s="1">
-        <v>1.0</v>
+      <c r="D65" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>10</v>
@@ -3192,25 +3232,25 @@
       <c r="G65" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="H65" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="I65" s="1">
-        <v>2.0</v>
+      <c r="H65" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I65" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="J65" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D66" s="1">
-        <v>7.0</v>
+      <c r="D66" s="1" t="n">
+        <v>7</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>130</v>
@@ -3224,22 +3264,22 @@
       <c r="H66" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="I66" s="1">
-        <v>3.0</v>
+      <c r="I66" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="J66" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B67" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D67" s="1">
-        <v>2.0</v>
+      <c r="D67" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>130</v>
@@ -3253,22 +3293,22 @@
       <c r="H67" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="I67" s="1">
-        <v>3.0</v>
+      <c r="I67" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="J67" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B68" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D68" s="1">
-        <v>7.0</v>
+      <c r="D68" s="1" t="n">
+        <v>7</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>130</v>
@@ -3282,22 +3322,22 @@
       <c r="H68" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="I68" s="1">
-        <v>2.0</v>
+      <c r="I68" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="J68" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B69" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="D69" s="1">
-        <v>4.0</v>
+      <c r="D69" s="1" t="n">
+        <v>4</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>130</v>
@@ -3311,22 +3351,22 @@
       <c r="H69" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="I69" s="1">
-        <v>4.0</v>
+      <c r="I69" s="1" t="n">
+        <v>4</v>
       </c>
       <c r="J69" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="D70" s="1">
-        <v>5.0</v>
+      <c r="D70" s="1" t="n">
+        <v>5</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>130</v>
@@ -3340,22 +3380,22 @@
       <c r="H70" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="I70" s="1">
-        <v>3.0</v>
+      <c r="I70" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="J70" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B71" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="D71" s="1">
-        <v>1.0</v>
+      <c r="D71" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>130</v>
@@ -3369,22 +3409,22 @@
       <c r="H71" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="I71" s="1">
-        <v>3.0</v>
+      <c r="I71" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="J71" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B72" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D72" s="1">
-        <v>3.0</v>
+      <c r="D72" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>130</v>
@@ -3398,22 +3438,22 @@
       <c r="H72" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="I72" s="1">
-        <v>4.0</v>
+      <c r="I72" s="1" t="n">
+        <v>4</v>
       </c>
       <c r="J72" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B73" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D73" s="1">
-        <v>3.0</v>
+      <c r="D73" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>130</v>
@@ -3427,22 +3467,22 @@
       <c r="H73" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="I73" s="1">
-        <v>3.0</v>
+      <c r="I73" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="J73" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B74" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D74" s="1">
-        <v>1.0</v>
+      <c r="D74" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>130</v>
@@ -3456,22 +3496,22 @@
       <c r="H74" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="I74" s="1">
-        <v>3.0</v>
+      <c r="I74" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="J74" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B75" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D75" s="1">
-        <v>1.0</v>
+      <c r="D75" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>130</v>
@@ -3485,22 +3525,22 @@
       <c r="H75" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="I75" s="1">
-        <v>2.0</v>
+      <c r="I75" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="J75" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B76" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="D76" s="1">
-        <v>1.0</v>
+      <c r="D76" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>130</v>
@@ -3514,22 +3554,22 @@
       <c r="H76" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="I76" s="1">
-        <v>1.0</v>
+      <c r="I76" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="J76" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B77" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="D77" s="1">
-        <v>5.0</v>
+      <c r="D77" s="1" t="n">
+        <v>5</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>153</v>
@@ -3550,15 +3590,15 @@
         <v>154</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B78" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="D78" s="1">
-        <v>3.0</v>
+      <c r="D78" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>153</v>
@@ -3579,15 +3619,15 @@
         <v>155</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B79" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="D79" s="1">
-        <v>1.0</v>
+      <c r="D79" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>153</v>
@@ -3608,15 +3648,15 @@
         <v>157</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B80" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="D80" s="1">
-        <v>1.0</v>
+      <c r="D80" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>153</v>
@@ -3637,15 +3677,15 @@
         <v>158</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B81" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="D81" s="1">
-        <v>4.0</v>
+      <c r="D81" s="1" t="n">
+        <v>4</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>153</v>
@@ -3666,15 +3706,15 @@
         <v>160</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B82" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="D82" s="1">
-        <v>4.0</v>
+      <c r="D82" s="1" t="n">
+        <v>4</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>153</v>
@@ -3695,15 +3735,15 @@
         <v>161</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B83" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="D83" s="1">
-        <v>1.0</v>
+      <c r="D83" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>153</v>
@@ -3724,15 +3764,15 @@
         <v>163</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B84" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="D84" s="1">
-        <v>1.0</v>
+      <c r="D84" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>153</v>
@@ -3753,15 +3793,15 @@
         <v>164</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B85" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="D85" s="1">
-        <v>3.0</v>
+      <c r="D85" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>153</v>
@@ -3782,15 +3822,15 @@
         <v>166</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B86" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="D86" s="1">
-        <v>1.0</v>
+      <c r="D86" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>168</v>
@@ -3804,22 +3844,22 @@
       <c r="H86" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="I86" s="1">
-        <v>3.0</v>
+      <c r="I86" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="J86" s="1" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B87" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="D87" s="1">
-        <v>1.0</v>
+      <c r="D87" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>168</v>
@@ -3833,22 +3873,22 @@
       <c r="H87" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="I87" s="1">
-        <v>3.0</v>
+      <c r="I87" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="J87" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B88" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="D88" s="1">
-        <v>1.0</v>
+      <c r="D88" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>168</v>
@@ -3862,22 +3902,22 @@
       <c r="H88" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="I88" s="1">
-        <v>3.0</v>
+      <c r="I88" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="J88" s="1" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B89" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="D89" s="1">
-        <v>3.0</v>
+      <c r="D89" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>168</v>
@@ -3891,22 +3931,22 @@
       <c r="H89" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="I89" s="1">
-        <v>3.0</v>
+      <c r="I89" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="J89" s="1" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B90" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="D90" s="1">
-        <v>2.0</v>
+      <c r="D90" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>168</v>
@@ -3920,22 +3960,22 @@
       <c r="H90" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="I90" s="1">
-        <v>4.0</v>
+      <c r="I90" s="1" t="n">
+        <v>4</v>
       </c>
       <c r="J90" s="1" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B91" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D91" s="1">
-        <v>1.0</v>
+      <c r="D91" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>168</v>
@@ -3949,22 +3989,22 @@
       <c r="H91" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="I91" s="1">
-        <v>2.0</v>
+      <c r="I91" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="J91" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B92" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="D92" s="1">
-        <v>1.0</v>
+      <c r="D92" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>168</v>
@@ -3978,22 +4018,22 @@
       <c r="H92" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="I92" s="1">
-        <v>2.0</v>
+      <c r="I92" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="J92" s="1" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B93" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="D93" s="1">
-        <v>1.0</v>
+      <c r="D93" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>183</v>
@@ -4007,22 +4047,22 @@
       <c r="H93" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="I93" s="1">
-        <v>4.0</v>
+      <c r="I93" s="1" t="n">
+        <v>4</v>
       </c>
       <c r="J93" s="1" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B94" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="D94" s="1">
-        <v>1.0</v>
+      <c r="D94" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>183</v>
@@ -4036,22 +4076,22 @@
       <c r="H94" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="I94" s="1">
-        <v>3.0</v>
+      <c r="I94" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="J94" s="1" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B95" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="D95" s="1">
-        <v>2.0</v>
+      <c r="D95" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>183</v>
@@ -4065,22 +4105,22 @@
       <c r="H95" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="I95" s="1">
-        <v>3.0</v>
+      <c r="I95" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="J95" s="1" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B96" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="D96" s="1">
-        <v>2.0</v>
+      <c r="D96" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>183</v>
@@ -4094,22 +4134,22 @@
       <c r="H96" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="I96" s="1">
-        <v>3.0</v>
+      <c r="I96" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="J96" s="1" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B97" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="D97" s="1">
-        <v>2.0</v>
+      <c r="D97" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>183</v>
@@ -4123,22 +4163,22 @@
       <c r="H97" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="I97" s="1">
-        <v>3.0</v>
+      <c r="I97" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="J97" s="1" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B98" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="D98" s="1">
-        <v>2.0</v>
+      <c r="D98" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>183</v>
@@ -4152,22 +4192,22 @@
       <c r="H98" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="I98" s="1">
-        <v>4.0</v>
+      <c r="I98" s="1" t="n">
+        <v>4</v>
       </c>
       <c r="J98" s="1" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B99" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="D99" s="1">
-        <v>1.0</v>
+      <c r="D99" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="E99" s="1" t="s">
         <v>183</v>
@@ -4181,22 +4221,22 @@
       <c r="H99" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="I99" s="1">
-        <v>2.0</v>
+      <c r="I99" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="J99" s="1" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B100" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="D100" s="1">
-        <v>1.0</v>
+      <c r="D100" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>183</v>
@@ -4210,22 +4250,22 @@
       <c r="H100" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="I100" s="1">
-        <v>2.0</v>
+      <c r="I100" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="J100" s="1" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B101" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="D101" s="1">
-        <v>1.0</v>
+      <c r="D101" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>183</v>
@@ -4239,22 +4279,22 @@
       <c r="H101" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="I101" s="1">
-        <v>1.0</v>
+      <c r="I101" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="J101" s="1" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B102" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="D102" s="1">
-        <v>1.0</v>
+      <c r="D102" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="E102" s="1" t="s">
         <v>183</v>
@@ -4268,22 +4308,22 @@
       <c r="H102" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="I102" s="1">
-        <v>5.0</v>
+      <c r="I102" s="1" t="n">
+        <v>5</v>
       </c>
       <c r="J102" s="1" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B103" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="D103" s="1">
-        <v>2.0</v>
+      <c r="D103" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="E103" s="1" t="s">
         <v>183</v>
@@ -4297,22 +4337,22 @@
       <c r="H103" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="I103" s="1">
-        <v>5.0</v>
+      <c r="I103" s="1" t="n">
+        <v>5</v>
       </c>
       <c r="J103" s="1" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B104" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="D104" s="1">
-        <v>1.0</v>
+      <c r="D104" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>183</v>
@@ -4326,22 +4366,22 @@
       <c r="H104" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="I104" s="1">
-        <v>3.0</v>
+      <c r="I104" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="J104" s="1" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B105" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="D105" s="1">
-        <v>1.0</v>
+      <c r="D105" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="E105" s="1" t="s">
         <v>183</v>
@@ -4355,22 +4395,22 @@
       <c r="H105" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="I105" s="1">
-        <v>0.0</v>
+      <c r="I105" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="J105" s="1" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B106" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="D106" s="1">
-        <v>3.0</v>
+      <c r="D106" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="E106" s="1" t="s">
         <v>183</v>
@@ -4384,22 +4424,22 @@
       <c r="H106" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="I106" s="1">
-        <v>5.0</v>
+      <c r="I106" s="1" t="n">
+        <v>5</v>
       </c>
       <c r="J106" s="1" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B107" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="D107" s="1">
-        <v>1.0</v>
+      <c r="D107" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="E107" s="1" t="s">
         <v>183</v>
@@ -4413,22 +4453,22 @@
       <c r="H107" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="I107" s="1">
-        <v>4.0</v>
+      <c r="I107" s="1" t="n">
+        <v>4</v>
       </c>
       <c r="J107" s="1" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B108" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="D108" s="1">
-        <v>1.0</v>
+      <c r="D108" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="E108" s="1" t="s">
         <v>183</v>
@@ -4442,22 +4482,22 @@
       <c r="H108" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="I108" s="1">
-        <v>6.0</v>
+      <c r="I108" s="1" t="n">
+        <v>6</v>
       </c>
       <c r="J108" s="1" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B109" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="D109" s="1">
-        <v>2.0</v>
+      <c r="D109" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="E109" s="1" t="s">
         <v>183</v>
@@ -4471,22 +4511,22 @@
       <c r="H109" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="I109" s="1">
-        <v>0.0</v>
+      <c r="I109" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="J109" s="1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B110" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="D110" s="1">
-        <v>1.0</v>
+      <c r="D110" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="E110" s="1" t="s">
         <v>183</v>
@@ -4500,22 +4540,22 @@
       <c r="H110" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="I110" s="1">
-        <v>3.0</v>
+      <c r="I110" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="J110" s="1" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B111" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="D111" s="1">
-        <v>2.0</v>
+      <c r="D111" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="E111" s="1" t="s">
         <v>183</v>
@@ -4529,22 +4569,22 @@
       <c r="H111" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="I111" s="1">
-        <v>1.0</v>
+      <c r="I111" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="J111" s="1" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B112" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="D112" s="1">
-        <v>1.0</v>
+      <c r="D112" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="E112" s="1" t="s">
         <v>183</v>
@@ -4558,22 +4598,22 @@
       <c r="H112" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="I112" s="1">
-        <v>4.0</v>
+      <c r="I112" s="1" t="n">
+        <v>4</v>
       </c>
       <c r="J112" s="1" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B113" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="D113" s="1">
-        <v>1.0</v>
+      <c r="D113" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="E113" s="1" t="s">
         <v>183</v>
@@ -4587,22 +4627,22 @@
       <c r="H113" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="I113" s="1">
-        <v>3.0</v>
+      <c r="I113" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="J113" s="1" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B114" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="D114" s="1">
-        <v>4.0</v>
+      <c r="D114" s="1" t="n">
+        <v>4</v>
       </c>
       <c r="E114" s="1" t="s">
         <v>183</v>
@@ -4616,22 +4656,22 @@
       <c r="H114" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="I114" s="1">
-        <v>1.0</v>
+      <c r="I114" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="J114" s="1" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B115" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="D115" s="1">
-        <v>1.0</v>
+      <c r="D115" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="E115" s="1" t="s">
         <v>183</v>
@@ -4645,22 +4685,22 @@
       <c r="H115" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="I115" s="1">
-        <v>3.0</v>
+      <c r="I115" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="J115" s="1" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B116" s="1" t="s">
         <v>226</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="D116" s="1">
-        <v>4.0</v>
+      <c r="D116" s="1" t="n">
+        <v>4</v>
       </c>
       <c r="E116" s="1" t="s">
         <v>10</v>
@@ -4671,25 +4711,25 @@
       <c r="G116" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="H116" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="I116" s="1">
-        <v>4.0</v>
+      <c r="H116" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I116" s="1" t="n">
+        <v>4</v>
       </c>
       <c r="J116" s="1" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="117">
+    <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B117" s="1" t="s">
         <v>226</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="D117" s="1">
-        <v>1.0</v>
+      <c r="D117" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="E117" s="1" t="s">
         <v>10</v>
@@ -4700,25 +4740,25 @@
       <c r="G117" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="H117" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="I117" s="1">
-        <v>4.0</v>
+      <c r="H117" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I117" s="1" t="n">
+        <v>4</v>
       </c>
       <c r="J117" s="1" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B118" s="1" t="s">
         <v>226</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="D118" s="1">
-        <v>4.0</v>
+      <c r="D118" s="1" t="n">
+        <v>4</v>
       </c>
       <c r="E118" s="1" t="s">
         <v>10</v>
@@ -4729,25 +4769,25 @@
       <c r="G118" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="H118" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="I118" s="1">
-        <v>3.0</v>
+      <c r="H118" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I118" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="J118" s="1" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B119" s="1" t="s">
         <v>226</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="D119" s="1">
-        <v>1.0</v>
+      <c r="D119" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="E119" s="1" t="s">
         <v>10</v>
@@ -4758,25 +4798,25 @@
       <c r="G119" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="H119" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="I119" s="1">
-        <v>5.0</v>
+      <c r="H119" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="I119" s="1" t="n">
+        <v>5</v>
       </c>
       <c r="J119" s="1" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B120" s="1" t="s">
         <v>226</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="D120" s="1">
-        <v>1.0</v>
+      <c r="D120" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="E120" s="1" t="s">
         <v>10</v>
@@ -4787,22 +4827,22 @@
       <c r="G120" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="H120" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="I120" s="1">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="121">
+      <c r="H120" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="I120" s="1" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B121" s="1" t="s">
         <v>226</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="D121" s="1">
-        <v>1.0</v>
+      <c r="D121" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="E121" s="1" t="s">
         <v>10</v>
@@ -4813,25 +4853,25 @@
       <c r="G121" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="H121" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="I121" s="1">
-        <v>2.0</v>
+      <c r="H121" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="I121" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="J121" s="1" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="122">
+    <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B122" s="1" t="s">
         <v>226</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="D122" s="1">
-        <v>1.0</v>
+      <c r="D122" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="E122" s="1" t="s">
         <v>10</v>
@@ -4842,25 +4882,25 @@
       <c r="G122" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="H122" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="I122" s="1">
-        <v>2.0</v>
+      <c r="H122" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="I122" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="J122" s="1" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="123">
+    <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B123" s="1" t="s">
         <v>226</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="D123" s="1">
-        <v>1.0</v>
+      <c r="D123" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="E123" s="1" t="s">
         <v>10</v>
@@ -4871,25 +4911,25 @@
       <c r="G123" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="H123" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="I123" s="1">
-        <v>2.0</v>
+      <c r="H123" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="I123" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="J123" s="1" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B124" s="1" t="s">
         <v>226</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="D124" s="1">
-        <v>1.0</v>
+      <c r="D124" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="E124" s="1" t="s">
         <v>10</v>
@@ -4900,22 +4940,25 @@
       <c r="G124" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="H124" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="I124" s="1">
-        <v>4.0</v>
+      <c r="H124" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I124" s="1" t="n">
+        <v>4</v>
       </c>
       <c r="J124" s="1" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="125">
+    <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B125" s="1" t="s">
+        <v>226</v>
+      </c>
       <c r="C125" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="D125" s="1">
-        <v>4.0</v>
+      <c r="D125" s="1" t="n">
+        <v>4</v>
       </c>
       <c r="E125" s="1" t="s">
         <v>10</v>
@@ -4926,22 +4969,25 @@
       <c r="G125" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="H125" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="I125" s="1">
-        <v>3.0</v>
+      <c r="H125" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I125" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="J125" s="1" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="126">
+    <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B126" s="1" t="s">
+        <v>226</v>
+      </c>
       <c r="C126" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="D126" s="1">
-        <v>1.0</v>
+      <c r="D126" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="E126" s="1" t="s">
         <v>10</v>
@@ -4952,22 +4998,25 @@
       <c r="G126" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="H126" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="I126" s="1">
-        <v>3.0</v>
+      <c r="H126" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I126" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="J126" s="1" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="127">
+    <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B127" s="1" t="s">
+        <v>226</v>
+      </c>
       <c r="C127" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="D127" s="1">
-        <v>1.0</v>
+      <c r="D127" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="E127" s="1" t="s">
         <v>10</v>
@@ -4978,22 +5027,25 @@
       <c r="G127" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="H127" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="I127" s="1">
-        <v>3.0</v>
+      <c r="H127" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I127" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="J127" s="1" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="128">
+    <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B128" s="1" t="s">
+        <v>226</v>
+      </c>
       <c r="C128" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="D128" s="1">
-        <v>1.0</v>
+      <c r="D128" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="E128" s="1" t="s">
         <v>10</v>
@@ -5004,22 +5056,25 @@
       <c r="G128" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="H128" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="I128" s="1">
-        <v>2.0</v>
+      <c r="H128" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I128" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="J128" s="1" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="129">
+    <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B129" s="1" t="s">
+        <v>226</v>
+      </c>
       <c r="C129" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="D129" s="1">
-        <v>3.0</v>
+      <c r="D129" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="E129" s="1" t="s">
         <v>10</v>
@@ -5030,22 +5085,25 @@
       <c r="G129" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="H129" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="I129" s="1">
-        <v>3.0</v>
+      <c r="H129" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I129" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="J129" s="1" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="130">
+    <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B130" s="1" t="s">
+        <v>226</v>
+      </c>
       <c r="C130" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="D130" s="1">
-        <v>1.0</v>
+      <c r="D130" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="E130" s="1" t="s">
         <v>10</v>
@@ -5056,22 +5114,25 @@
       <c r="G130" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="H130" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="I130" s="1">
-        <v>3.0</v>
+      <c r="H130" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I130" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="J130" s="1" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="131">
+    <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B131" s="1" t="s">
+        <v>226</v>
+      </c>
       <c r="C131" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="D131" s="1">
-        <v>7.0</v>
+      <c r="D131" s="1" t="n">
+        <v>7</v>
       </c>
       <c r="E131" s="1" t="s">
         <v>10</v>
@@ -5082,22 +5143,25 @@
       <c r="G131" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="H131" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="I131" s="1">
-        <v>2.0</v>
+      <c r="H131" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I131" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="J131" s="1" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="132">
+    <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B132" s="1" t="s">
+        <v>226</v>
+      </c>
       <c r="C132" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="D132" s="1">
-        <v>6.0</v>
+      <c r="D132" s="1" t="n">
+        <v>6</v>
       </c>
       <c r="E132" s="1" t="s">
         <v>10</v>
@@ -5108,22 +5172,25 @@
       <c r="G132" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="H132" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="I132" s="1">
-        <v>4.0</v>
+      <c r="H132" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I132" s="1" t="n">
+        <v>4</v>
       </c>
       <c r="J132" s="1" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="133">
+    <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B133" s="1" t="s">
+        <v>226</v>
+      </c>
       <c r="C133" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="D133" s="1">
-        <v>1.0</v>
+      <c r="D133" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="E133" s="1" t="s">
         <v>10</v>
@@ -5134,22 +5201,25 @@
       <c r="G133" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="H133" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="I133" s="1">
-        <v>5.0</v>
+      <c r="H133" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="I133" s="1" t="n">
+        <v>5</v>
       </c>
       <c r="J133" s="1" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="134">
+    <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B134" s="1" t="s">
+        <v>226</v>
+      </c>
       <c r="C134" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="D134" s="1">
-        <v>1.0</v>
+      <c r="D134" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="E134" s="1" t="s">
         <v>10</v>
@@ -5160,22 +5230,25 @@
       <c r="G134" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="H134" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="I134" s="1">
-        <v>3.0</v>
+      <c r="H134" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I134" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="J134" s="1" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="135">
+    <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B135" s="1" t="s">
+        <v>226</v>
+      </c>
       <c r="C135" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="D135" s="1">
-        <v>1.0</v>
+      <c r="D135" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="E135" s="1" t="s">
         <v>10</v>
@@ -5186,22 +5259,25 @@
       <c r="G135" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="H135" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="I135" s="1">
-        <v>3.0</v>
+      <c r="H135" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I135" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="J135" s="1" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="136">
+    <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B136" s="1" t="s">
+        <v>226</v>
+      </c>
       <c r="C136" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="D136" s="1">
-        <v>5.0</v>
+      <c r="D136" s="1" t="n">
+        <v>5</v>
       </c>
       <c r="E136" s="1" t="s">
         <v>10</v>
@@ -5212,22 +5288,25 @@
       <c r="G136" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="H136" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="I136" s="1">
-        <v>2.0</v>
+      <c r="H136" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I136" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="J136" s="1" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="137">
+    <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B137" s="1" t="s">
+        <v>226</v>
+      </c>
       <c r="C137" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="D137" s="1">
-        <v>1.0</v>
+      <c r="D137" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="E137" s="1" t="s">
         <v>10</v>
@@ -5238,22 +5317,25 @@
       <c r="G137" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="H137" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="I137" s="1">
-        <v>4.0</v>
+      <c r="H137" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I137" s="1" t="n">
+        <v>4</v>
       </c>
       <c r="J137" s="1" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="138">
+    <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B138" s="1" t="s">
+        <v>226</v>
+      </c>
       <c r="C138" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="D138" s="1">
-        <v>1.0</v>
+      <c r="D138" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="E138" s="1" t="s">
         <v>10</v>
@@ -5264,22 +5346,25 @@
       <c r="G138" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="H138" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="I138" s="1">
-        <v>3.0</v>
+      <c r="H138" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I138" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="J138" s="1" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="139">
+    <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B139" s="1" t="s">
+        <v>226</v>
+      </c>
       <c r="C139" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="D139" s="1">
-        <v>3.0</v>
+      <c r="D139" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="E139" s="1" t="s">
         <v>10</v>
@@ -5290,22 +5375,25 @@
       <c r="G139" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="H139" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="I139" s="1">
-        <v>2.0</v>
+      <c r="H139" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I139" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="J139" s="1" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="140">
+    <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B140" s="1" t="s">
+        <v>226</v>
+      </c>
       <c r="C140" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="D140" s="1">
-        <v>1.0</v>
+      <c r="D140" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="E140" s="1" t="s">
         <v>10</v>
@@ -5316,22 +5404,25 @@
       <c r="G140" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="H140" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="I140" s="1">
-        <v>2.0</v>
+      <c r="H140" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I140" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="J140" s="1" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="141">
+    <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B141" s="1" t="s">
+        <v>226</v>
+      </c>
       <c r="C141" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="D141" s="1">
-        <v>1.0</v>
+      <c r="D141" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="E141" s="1" t="s">
         <v>10</v>
@@ -5342,22 +5433,25 @@
       <c r="G141" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="H141" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="I141" s="1">
-        <v>2.0</v>
+      <c r="H141" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I141" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="J141" s="1" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="142">
+    <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B142" s="1" t="s">
+        <v>226</v>
+      </c>
       <c r="C142" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="D142" s="1">
-        <v>2.0</v>
+      <c r="D142" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="E142" s="1" t="s">
         <v>10</v>
@@ -5368,22 +5462,25 @@
       <c r="G142" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="H142" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="I142" s="1">
-        <v>4.0</v>
+      <c r="H142" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I142" s="1" t="n">
+        <v>4</v>
       </c>
       <c r="J142" s="1" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="143">
+    <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B143" s="1" t="s">
+        <v>226</v>
+      </c>
       <c r="C143" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="D143" s="1">
-        <v>1.0</v>
+      <c r="D143" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="E143" s="1" t="s">
         <v>10</v>
@@ -5394,22 +5491,25 @@
       <c r="G143" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="H143" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="I143" s="1">
-        <v>3.0</v>
+      <c r="H143" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I143" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="J143" s="1" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="144">
+    <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B144" s="1" t="s">
+        <v>226</v>
+      </c>
       <c r="C144" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="D144" s="1">
-        <v>1.0</v>
+      <c r="D144" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="E144" s="1" t="s">
         <v>10</v>
@@ -5420,22 +5520,25 @@
       <c r="G144" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="H144" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="I144" s="1">
-        <v>3.0</v>
+      <c r="H144" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I144" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="J144" s="1" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="145">
+    <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B145" s="1" t="s">
+        <v>226</v>
+      </c>
       <c r="C145" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="D145" s="1">
-        <v>1.0</v>
+      <c r="D145" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="E145" s="1" t="s">
         <v>10</v>
@@ -5446,22 +5549,25 @@
       <c r="G145" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="H145" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="I145" s="1">
-        <v>3.0</v>
+      <c r="H145" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I145" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="J145" s="1" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="146">
+    <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B146" s="1" t="s">
+        <v>226</v>
+      </c>
       <c r="C146" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="D146" s="1">
-        <v>1.0</v>
+      <c r="D146" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="E146" s="1" t="s">
         <v>10</v>
@@ -5472,22 +5578,25 @@
       <c r="G146" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="H146" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="I146" s="1">
-        <v>2.0</v>
+      <c r="H146" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I146" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="J146" s="1" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="147">
+    <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B147" s="1" t="s">
+        <v>226</v>
+      </c>
       <c r="C147" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="D147" s="1">
-        <v>1.0</v>
+      <c r="D147" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="E147" s="1" t="s">
         <v>10</v>
@@ -5498,22 +5607,25 @@
       <c r="G147" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="H147" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="I147" s="1">
-        <v>2.0</v>
+      <c r="H147" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I147" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="J147" s="1" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="148">
+    <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B148" s="1" t="s">
+        <v>226</v>
+      </c>
       <c r="C148" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="D148" s="1">
-        <v>2.0</v>
+      <c r="D148" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="E148" s="1" t="s">
         <v>10</v>
@@ -5524,22 +5636,25 @@
       <c r="G148" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="H148" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="I148" s="1">
-        <v>2.0</v>
+      <c r="H148" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I148" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="J148" s="1" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="149">
+    <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B149" s="1" t="s">
+        <v>226</v>
+      </c>
       <c r="C149" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="D149" s="1">
-        <v>4.0</v>
+      <c r="D149" s="1" t="n">
+        <v>4</v>
       </c>
       <c r="E149" s="1" t="s">
         <v>10</v>
@@ -5550,22 +5665,25 @@
       <c r="G149" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="H149" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="I149" s="1">
-        <v>3.0</v>
+      <c r="H149" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I149" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="J149" s="1" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="150">
+    <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B150" s="1" t="s">
+        <v>226</v>
+      </c>
       <c r="C150" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="D150" s="1">
-        <v>1.0</v>
+      <c r="D150" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="E150" s="1" t="s">
         <v>10</v>
@@ -5576,22 +5694,25 @@
       <c r="G150" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="H150" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="I150" s="1">
-        <v>3.0</v>
+      <c r="H150" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I150" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="J150" s="1" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="151">
+    <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B151" s="1" t="s">
+        <v>226</v>
+      </c>
       <c r="C151" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="D151" s="1">
-        <v>2.0</v>
+      <c r="D151" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="E151" s="1" t="s">
         <v>10</v>
@@ -5602,22 +5723,25 @@
       <c r="G151" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="H151" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="I151" s="1">
-        <v>3.0</v>
+      <c r="H151" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I151" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="J151" s="1" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="152">
+    <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B152" s="1" t="s">
+        <v>226</v>
+      </c>
       <c r="C152" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="D152" s="1">
-        <v>1.0</v>
+      <c r="D152" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="E152" s="1" t="s">
         <v>10</v>
@@ -5628,22 +5752,25 @@
       <c r="G152" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="H152" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="I152" s="1">
-        <v>1.0</v>
+      <c r="H152" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I152" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="J152" s="1" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="153">
+    <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B153" s="1" t="s">
+        <v>226</v>
+      </c>
       <c r="C153" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="D153" s="1">
-        <v>1.0</v>
+      <c r="D153" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="E153" s="1" t="s">
         <v>10</v>
@@ -5654,22 +5781,25 @@
       <c r="G153" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="H153" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="I153" s="1">
-        <v>3.0</v>
+      <c r="H153" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I153" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="J153" s="1" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="154">
+    <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B154" s="1" t="s">
+        <v>226</v>
+      </c>
       <c r="C154" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="D154" s="1">
-        <v>1.0</v>
+      <c r="D154" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="E154" s="1" t="s">
         <v>10</v>
@@ -5680,22 +5810,25 @@
       <c r="G154" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="H154" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="I154" s="1">
-        <v>3.0</v>
+      <c r="H154" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I154" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="J154" s="1" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="155">
+    <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B155" s="1" t="s">
+        <v>226</v>
+      </c>
       <c r="C155" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="D155" s="1">
-        <v>1.0</v>
+      <c r="D155" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="E155" s="1" t="s">
         <v>10</v>
@@ -5706,22 +5839,25 @@
       <c r="G155" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="H155" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="I155" s="1">
-        <v>1.0</v>
+      <c r="H155" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I155" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="J155" s="1" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="156">
+    <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B156" s="1" t="s">
+        <v>226</v>
+      </c>
       <c r="C156" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="D156" s="1">
-        <v>1.0</v>
+      <c r="D156" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="E156" s="1" t="s">
         <v>10</v>
@@ -5732,22 +5868,25 @@
       <c r="G156" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="H156" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="I156" s="1">
-        <v>2.0</v>
+      <c r="H156" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="I156" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="J156" s="1" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="157">
+    <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B157" s="1" t="s">
+        <v>226</v>
+      </c>
       <c r="C157" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="D157" s="1">
-        <v>1.0</v>
+      <c r="D157" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="E157" s="1" t="s">
         <v>10</v>
@@ -5758,22 +5897,25 @@
       <c r="G157" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="H157" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="I157" s="1">
-        <v>2.0</v>
+      <c r="H157" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I157" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="J157" s="1" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="158">
+    <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B158" s="1" t="s">
+        <v>226</v>
+      </c>
       <c r="C158" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="D158" s="1">
-        <v>5.0</v>
+      <c r="D158" s="1" t="n">
+        <v>5</v>
       </c>
       <c r="E158" s="1" t="s">
         <v>10</v>
@@ -5784,22 +5926,25 @@
       <c r="G158" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="H158" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I158" s="1">
-        <v>5.0</v>
+      <c r="H158" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="I158" s="1" t="n">
+        <v>5</v>
       </c>
       <c r="J158" s="1" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="159">
+    <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B159" s="1" t="s">
+        <v>226</v>
+      </c>
       <c r="C159" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="D159" s="1">
-        <v>1.0</v>
+      <c r="D159" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="E159" s="1" t="s">
         <v>10</v>
@@ -5810,22 +5955,25 @@
       <c r="G159" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="H159" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="I159" s="1">
-        <v>4.0</v>
+      <c r="H159" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I159" s="1" t="n">
+        <v>4</v>
       </c>
       <c r="J159" s="1" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="160">
+    <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B160" s="1" t="s">
+        <v>226</v>
+      </c>
       <c r="C160" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="D160" s="1">
-        <v>3.0</v>
+      <c r="D160" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="E160" s="1" t="s">
         <v>10</v>
@@ -5836,22 +5984,25 @@
       <c r="G160" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="H160" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="I160" s="1">
-        <v>2.0</v>
+      <c r="H160" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I160" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="J160" s="1" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="161">
+    <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B161" s="1" t="s">
+        <v>226</v>
+      </c>
       <c r="C161" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="D161" s="1">
-        <v>3.0</v>
+      <c r="D161" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="E161" s="1" t="s">
         <v>10</v>
@@ -5862,22 +6013,25 @@
       <c r="G161" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="H161" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="I161" s="1">
-        <v>2.0</v>
+      <c r="H161" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I161" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="J161" s="1" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="162">
+    <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B162" s="1" t="s">
+        <v>226</v>
+      </c>
       <c r="C162" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="D162" s="1">
-        <v>6.0</v>
+      <c r="D162" s="1" t="n">
+        <v>6</v>
       </c>
       <c r="E162" s="1" t="s">
         <v>10</v>
@@ -5888,22 +6042,25 @@
       <c r="G162" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="H162" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="I162" s="1">
-        <v>2.0</v>
+      <c r="H162" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I162" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="J162" s="1" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="163">
+    <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B163" s="1" t="s">
+        <v>226</v>
+      </c>
       <c r="C163" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="D163" s="1">
-        <v>6.0</v>
+      <c r="D163" s="1" t="n">
+        <v>6</v>
       </c>
       <c r="E163" s="1" t="s">
         <v>10</v>
@@ -5914,22 +6071,25 @@
       <c r="G163" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="H163" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="I163" s="1">
-        <v>3.0</v>
+      <c r="H163" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I163" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="J163" s="1" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="164">
+    <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B164" s="1" t="s">
+        <v>226</v>
+      </c>
       <c r="C164" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="D164" s="1">
-        <v>1.0</v>
+      <c r="D164" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="E164" s="1" t="s">
         <v>10</v>
@@ -5940,22 +6100,25 @@
       <c r="G164" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="H164" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="I164" s="1">
-        <v>3.0</v>
+      <c r="H164" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I164" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="J164" s="1" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="165">
+    <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B165" s="1" t="s">
+        <v>226</v>
+      </c>
       <c r="C165" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="D165" s="1">
-        <v>2.0</v>
+      <c r="D165" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="E165" s="1" t="s">
         <v>10</v>
@@ -5966,22 +6129,25 @@
       <c r="G165" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="H165" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="I165" s="1">
-        <v>3.0</v>
+      <c r="H165" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I165" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="J165" s="1" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="166">
+    <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B166" s="1" t="s">
+        <v>226</v>
+      </c>
       <c r="C166" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="D166" s="1">
-        <v>1.0</v>
+      <c r="D166" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="E166" s="1" t="s">
         <v>10</v>
@@ -5992,22 +6158,25 @@
       <c r="G166" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="H166" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="I166" s="1">
-        <v>3.0</v>
+      <c r="H166" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I166" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="J166" s="1" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="167">
+    <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B167" s="1" t="s">
+        <v>226</v>
+      </c>
       <c r="C167" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="D167" s="1">
-        <v>1.0</v>
+      <c r="D167" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="E167" s="1" t="s">
         <v>10</v>
@@ -6018,22 +6187,25 @@
       <c r="G167" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="H167" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="I167" s="1">
-        <v>1.0</v>
+      <c r="H167" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I167" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="J167" s="1" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="168">
+    <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B168" s="1" t="s">
+        <v>226</v>
+      </c>
       <c r="C168" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="D168" s="1">
-        <v>1.0</v>
+      <c r="D168" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="E168" s="1" t="s">
         <v>10</v>
@@ -6044,22 +6216,25 @@
       <c r="G168" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="H168" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="I168" s="1">
-        <v>1.0</v>
+      <c r="H168" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I168" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="J168" s="1" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="169">
+    <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B169" s="1" t="s">
+        <v>226</v>
+      </c>
       <c r="C169" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="D169" s="1">
-        <v>1.0</v>
+      <c r="D169" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="E169" s="1" t="s">
         <v>10</v>
@@ -6070,22 +6245,25 @@
       <c r="G169" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="H169" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="I169" s="1">
-        <v>4.0</v>
+      <c r="H169" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I169" s="1" t="n">
+        <v>4</v>
       </c>
       <c r="J169" s="1" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="170">
+    <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B170" s="1" t="s">
+        <v>226</v>
+      </c>
       <c r="C170" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="D170" s="1">
-        <v>1.0</v>
+      <c r="D170" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="E170" s="1" t="s">
         <v>10</v>
@@ -6096,22 +6274,25 @@
       <c r="G170" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="H170" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="I170" s="1">
-        <v>4.0</v>
+      <c r="H170" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I170" s="1" t="n">
+        <v>4</v>
       </c>
       <c r="J170" s="1" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="171">
+    <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B171" s="1" t="s">
+        <v>226</v>
+      </c>
       <c r="C171" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="D171" s="1">
-        <v>5.0</v>
+      <c r="D171" s="1" t="n">
+        <v>5</v>
       </c>
       <c r="E171" s="1" t="s">
         <v>10</v>
@@ -6122,22 +6303,25 @@
       <c r="G171" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="H171" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="I171" s="1">
-        <v>3.0</v>
+      <c r="H171" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I171" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="J171" s="1" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="172">
+    <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B172" s="1" t="s">
+        <v>226</v>
+      </c>
       <c r="C172" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="D172" s="1">
-        <v>2.0</v>
+      <c r="D172" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="E172" s="1" t="s">
         <v>10</v>
@@ -6148,22 +6332,25 @@
       <c r="G172" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="H172" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="I172" s="1">
-        <v>3.0</v>
+      <c r="H172" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I172" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="J172" s="1" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="173">
+    <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B173" s="1" t="s">
+        <v>226</v>
+      </c>
       <c r="C173" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="D173" s="1">
-        <v>4.0</v>
+      <c r="D173" s="1" t="n">
+        <v>4</v>
       </c>
       <c r="E173" s="1" t="s">
         <v>10</v>
@@ -6174,22 +6361,25 @@
       <c r="G173" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="H173" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="I173" s="1">
-        <v>3.0</v>
+      <c r="H173" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I173" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="J173" s="1" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="174">
+    <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B174" s="1" t="s">
+        <v>226</v>
+      </c>
       <c r="C174" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="D174" s="1">
-        <v>3.0</v>
+      <c r="D174" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="E174" s="1" t="s">
         <v>10</v>
@@ -6200,22 +6390,25 @@
       <c r="G174" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="H174" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="I174" s="1">
-        <v>5.0</v>
+      <c r="H174" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I174" s="1" t="n">
+        <v>5</v>
       </c>
       <c r="J174" s="1" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="175">
+    <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B175" s="1" t="s">
+        <v>226</v>
+      </c>
       <c r="C175" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="D175" s="1">
-        <v>3.0</v>
+      <c r="D175" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="E175" s="1" t="s">
         <v>10</v>
@@ -6226,22 +6419,25 @@
       <c r="G175" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="H175" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="I175" s="1">
-        <v>4.0</v>
+      <c r="H175" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I175" s="1" t="n">
+        <v>4</v>
       </c>
       <c r="J175" s="1" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="176">
+    <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B176" s="1" t="s">
+        <v>226</v>
+      </c>
       <c r="C176" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="D176" s="1">
-        <v>1.0</v>
+      <c r="D176" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="E176" s="1" t="s">
         <v>10</v>
@@ -6252,22 +6448,25 @@
       <c r="G176" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="H176" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="I176" s="1">
-        <v>4.0</v>
+      <c r="H176" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I176" s="1" t="n">
+        <v>4</v>
       </c>
       <c r="J176" s="1" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="177">
+    <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B177" s="1" t="s">
+        <v>226</v>
+      </c>
       <c r="C177" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="D177" s="1">
-        <v>3.0</v>
+      <c r="D177" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="E177" s="1" t="s">
         <v>10</v>
@@ -6278,22 +6477,25 @@
       <c r="G177" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="H177" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="I177" s="1">
-        <v>3.0</v>
+      <c r="H177" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I177" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="J177" s="1" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="178">
+    <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B178" s="1" t="s">
+        <v>226</v>
+      </c>
       <c r="C178" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="D178" s="1">
-        <v>2.0</v>
+      <c r="D178" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="E178" s="1" t="s">
         <v>10</v>
@@ -6304,22 +6506,25 @@
       <c r="G178" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="H178" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="I178" s="1">
-        <v>1.0</v>
+      <c r="H178" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I178" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="J178" s="1" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="179">
+    <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B179" s="1" t="s">
+        <v>226</v>
+      </c>
       <c r="C179" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D179" s="1">
-        <v>1.0</v>
+      <c r="D179" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="E179" s="1" t="s">
         <v>10</v>
@@ -6330,22 +6535,25 @@
       <c r="G179" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="H179" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="I179" s="1">
-        <v>2.0</v>
+      <c r="H179" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I179" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="J179" s="1" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="180">
+    <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B180" s="1" t="s">
+        <v>226</v>
+      </c>
       <c r="C180" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="D180" s="1">
-        <v>1.0</v>
+      <c r="D180" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="E180" s="1" t="s">
         <v>130</v>
@@ -6359,19 +6567,22 @@
       <c r="H180" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="I180" s="1">
-        <v>4.0</v>
+      <c r="I180" s="1" t="n">
+        <v>4</v>
       </c>
       <c r="J180" s="1" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="181">
+    <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B181" s="1" t="s">
+        <v>226</v>
+      </c>
       <c r="C181" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="D181" s="1">
-        <v>1.0</v>
+      <c r="D181" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="E181" s="1" t="s">
         <v>130</v>
@@ -6385,19 +6596,22 @@
       <c r="H181" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="I181" s="1">
-        <v>4.0</v>
+      <c r="I181" s="1" t="n">
+        <v>4</v>
       </c>
       <c r="J181" s="1" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="182">
+    <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B182" s="1" t="s">
+        <v>226</v>
+      </c>
       <c r="C182" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="D182" s="1">
-        <v>3.0</v>
+      <c r="D182" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="E182" s="1" t="s">
         <v>130</v>
@@ -6411,19 +6625,22 @@
       <c r="H182" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="I182" s="1">
-        <v>4.0</v>
+      <c r="I182" s="1" t="n">
+        <v>4</v>
       </c>
       <c r="J182" s="1" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="183">
+    <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B183" s="1" t="s">
+        <v>226</v>
+      </c>
       <c r="C183" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="D183" s="1">
-        <v>1.0</v>
+      <c r="D183" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="E183" s="1" t="s">
         <v>130</v>
@@ -6437,14 +6654,20 @@
       <c r="H183" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="I183" s="1">
-        <v>4.0</v>
+      <c r="I183" s="1" t="n">
+        <v>4</v>
       </c>
       <c r="J183" s="1" t="s">
         <v>346</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>